--- a/Set Doors Properties From Table/ЗОНЫ И ДВЕРИ.xlsx
+++ b/Set Doors Properties From Table/ЗОНЫ И ДВЕРИ.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$F$1:$J$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$J$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
+  <si>
+    <t xml:space="preserve">ZONE_FROM_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONE_FROM_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONE_TO_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONE_TO_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOOR_CATEGORY</t>
+  </si>
   <si>
     <t xml:space="preserve">помещение</t>
   </si>
@@ -37,24 +52,6 @@
     <t xml:space="preserve">замок</t>
   </si>
   <si>
-    <t xml:space="preserve">имя этажа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE_FROM_CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE_FROM_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE_TO_CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONE_TO_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOOR_CATEGORY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Места общего пользования
 --------
 Технические помещения</t>
@@ -78,33 +75,33 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Места общего пользования
+--------
+Нежилые помещения
+--------
+Лестницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лифтовый холл
+--------
+Тамбур
+--------
+Тамбур-шлюз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коридор
+--------
+Тамбур
+--------
+Холл</t>
+  </si>
+  <si>
     <t xml:space="preserve">Остеклённая</t>
   </si>
   <si>
-    <t xml:space="preserve">Места общего пользования
---------
-Нежилые помещения
---------
-Лестницы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лифтовый холл
---------
-Тамбур
---------
-Тамбур-шлюз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">коридор
---------
-Тамбур
---------
-Холл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МТП*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Места общего пользования</t>
   </si>
   <si>
@@ -122,6 +119,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">лифтовый холл
 </t>
@@ -141,6 +139,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Коридор</t>
     </r>
@@ -156,6 +155,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ПСМ
 </t>
@@ -175,6 +175,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Помещение ВК, ТС</t>
     </r>
@@ -219,6 +220,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">лифтовый холл
 </t>
@@ -238,6 +240,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Коридор
 --------
@@ -250,6 +253,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Помещение</t>
     </r>
@@ -266,12 +270,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Лифтовый холл</t>
+  </si>
+  <si>
     <t xml:space="preserve">Цилиндр ГОСТ 53780-2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Лифтовый холл</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нежилые помещения</t>
   </si>
   <si>
@@ -332,6 +336,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Лифтовый холл
 </t>
@@ -384,6 +389,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Венткамера ПД
 --------
@@ -410,6 +416,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">--------
 Помещение АУПТВПВ
@@ -437,6 +444,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">--------
 Хладоцентр
@@ -474,6 +482,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">--------
 Венткамера
@@ -491,6 +500,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ПИК
 --------
@@ -564,6 +574,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">лифтовый холл
 </t>
@@ -589,6 +600,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Лестницы
 </t>
@@ -610,6 +622,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Лестница-Л#-#
 </t>
@@ -643,6 +656,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Технические помещения
 </t>
@@ -655,57 +669,57 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">--------
+*</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Тамбур-шлюз
+--------
+ПИК #
+--------
+*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">технические помещения
+--------
+Места общего пользования
+--------
+*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тамбур
+--------
+*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Летние помещения
+--------
 Нет</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">терраса
+--------
+Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кровля
+--------
+Терраса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">технические помещения
+--------
+*</t>
   </si>
   <si>
     <t xml:space="preserve">Тамбур-шлюз
 --------
-ПИК #
---------
-Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кровля
---------
-Терраса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">технические помещения
---------
-Места общего пользования
---------
-Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тамбур
---------
-Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Летние помещения
---------
-Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">терраса
---------
-Нет</t>
+*</t>
   </si>
   <si>
     <t xml:space="preserve">Вентшахта
--------------
+--------
 венткаемра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">технические помещения
---------
-Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тамбур-шлюз
---------
-Нет</t>
   </si>
 </sst>
 </file>
@@ -746,17 +760,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -814,7 +831,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,20 +852,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -928,18 +949,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36"/>
   </cols>
   <sheetData>
@@ -971,506 +994,672 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="F22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="126.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="596.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="316.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="182.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="4" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="4" t="n">
-        <v>23</v>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Set Doors Properties From Table/ЗОНЫ И ДВЕРИ.xlsx
+++ b/Set Doors Properties From Table/ЗОНЫ И ДВЕРИ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t xml:space="preserve">ZONE_FROM_CATEGORY</t>
   </si>
@@ -111,7 +111,34 @@
     <t xml:space="preserve">Лестницы</t>
   </si>
   <si>
-    <t xml:space="preserve">Лестница-Л#-#</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Лестница-ЛА-1
+--------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Лестница-ЛА-2
+--------
+Лестница-ЛБ-1
+--------
+Лестница-ЛБ-2
+--------
+Лестница-ЛВ-1
+--------
+Лестница-ЛВ-2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -145,19 +172,79 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ПСМ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">--------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Помещение ВК, ТС</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Коридор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технические помещения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техническое помещение
+--------
+Помещение ТС</t>
+  </si>
+  <si>
     <t xml:space="preserve">Места общего пользования
-------------
-Технические помещения</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ПСМ
+--------
+Технические помещения
+--------
+Нежилые помещения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помещение ЭОМ
+--------
+Помещение ЭОМ, СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шкаф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вент. решётка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Места общего пользования
+--------
+Нежилые помещения</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">лифтовый холл
 </t>
     </r>
     <r>
@@ -167,62 +254,178 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">------------
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Помещение ВК, ТС</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Коридор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технические помещения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Техническое помещение
---------
-Помещение ТС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Места общего пользования
-------------
-Технические помещения
+      <t xml:space="preserve">--------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Коридор
+--------
+офис</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Помещение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ЭОМ
+--------
+Помещение ЭОМ СС</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Лифтовый холл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цилиндр ГОСТ 53780-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежилые помещения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">холл
+--------
+Офис
+--------
+Коридор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с/у мужской
+--------
+с/у женский
+--------
+с/у МГН
+--------
+ПСМ
+--------
+ПУИ
+--------
+Помещение ТС/ХС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">холл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помещение СС
+--------
+Помещение ЭОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нежилые помещения
+--------
+Лестницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коридор
+--------
+Лифтовый холл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Офис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРИЯ 5.904-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технические помещения
+--------
+Места общего пользования</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Лифтовый холл
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">--------
+ПИК зона 1
+--------
+ПИК зона 2
+--------
+ПИК зона 3
+--------
+ПИК зона 4
+--------
+ПИК зона 5
+--------
+ПИК зона 6
+--------
+ПИК зона 7
+--------
+ПИК зона 8
+--------
+ПИК зона 9
+--------
+ПИК зона 10
+--------
+Тамбур-шлюз</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Помещение ЭОМ
+--------
+Помещение ЭОМ, СС
+--------
+Помещение СС, ЭОМ
+--------
+Помещение ЭОМ СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технические помещения
 --------
 Нежилые помещения</t>
   </si>
   <si>
-    <t xml:space="preserve">Помещение ЭОМ
---------
-Помещение ЭОМ, СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шкаф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вент. решётка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Места общего пользования
---------
-Нежилые помещения</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">лифтовый холл
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ПИК
+--------
+Тамбур-шлюз
+--------
+Лифтовый холл
+--------
+Коридор
+--------
+Тамбур-шлюз (вертолетная площадка)
+--------
 </t>
     </r>
     <r>
@@ -232,183 +435,85 @@
         <family val="0"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve">ПИК зона 1
+--------
+ПИК зона 2
+--------
+ПИК зона 3
+--------
+ПИК зона 4
+--------
+ПИК зона 5
+--------
+ПИК зона 6
+--------
+ПИК зона 7
+--------
+ПИК зона 8
+--------
+ПИК зона 9
+--------
+ПИК зона 10
+--------
+ПИК 1
+--------
+ПИК 2
+--------
+ПИК 3
+--------
+ПИК 4
+--------
+ПИК 5
+--------
+ПИК 6
+--------
+ПИК 7
+--------
+ПИК 8
+--------
+ПИК 9
+--------
+ПИК 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Венткамера ПД
+--------
+Венткамера ОВ/ПД
+--------
+Венткамера ДУ
+--------
+ИТП
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">--------
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Коридор
---------
-офис</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Помещение</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ЭОМ
---------
-Помещение ЭОМ СС</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Лифтовый холл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цилиндр ГОСТ 53780-2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нежилые помещения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">холл
---------
-Офис
---------
-Коридор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с/у мужской
---------
-с/у женский
---------
-с/у МГН
---------
-ПСМ
---------
-ПУИ
---------
-Помещение ТС/ХС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">холл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Помещение СС
---------
-Помещение ЭОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нежилые помещения
---------
-Лестницы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коридор
---------
-Лифтовый холл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРИЯ 5.904-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технические помещения
---------
-Места общего пользования</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Лифтовый холл
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">--------
-ПИК зона #
---------
-Тамбур-шлюз</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Помещение ЭОМ
---------
-Помещение ЭОМ, СС
---------
-Помещение СС, ЭОМ
---------
-Помещение ЭОМ СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Технические помещения
---------
-Нежилые помещения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИК
---------
-Тамбур-шлюз
---------
-Лифтовый холл
---------
-Коридор
---------
-Тамбур-шлюз (вертолетная площадка)
---------
-ПИК зона #
---------
-ПИК #</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Венткамера ПД
---------
-Венткамера ОВ/ПД
---------
-Венткамера ДУ
---------
-ИТП
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">--------
-ИТП зона #
+ИТП зона 1
+--------
+ИТП зона 2
+--------
+ИТП зона 3
+--------
+ИТП зона 4
+--------
+ИТП зона 5
+--------
+ИТП зона 6
+--------
+ИТП зона 7
 </t>
     </r>
     <r>
@@ -491,7 +596,28 @@
 --------
 узловая КСК АПТВПВ
 --------
-венткамера приточная зона #</t>
+венткамера приточная зона 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">--------
+венткамера приточная зона 2
+--------
+венткамера приточная зона 3
+--------
+венткамера приточная зона 4
+--------
+венткамера приточная зона 5
+--------
+венткамера приточная зона 6
+--------
+венткамера приточная зона 7</t>
     </r>
   </si>
   <si>
@@ -517,13 +643,56 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">--------
-ПИК зона #
---------
-ПИК #</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Помещение СС
+ПИК зона 1
+--------
+ПИК зона 2
+--------
+ПИК зона 3
+--------
+ПИК зона 4
+--------
+ПИК зона 5
+--------
+ПИК зона 6
+--------
+ПИК зона 7
+--------
+ПИК зона 8
+--------
+ПИК зона 9
+--------
+ПИК зона 10
+--------
+ПИК 1
+--------
+ПИК 2
+--------
+ПИК 3
+--------
+ПИК 4
+--------
+ПИК 5
+--------
+ПИК 6
+--------
+ПИК 7
+--------
+ПИК 8
+--------
+ПИК 9
+--------
+ПИК 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Помещение СС
 --------
 Помещение СБ/СПЗ
 --------
@@ -533,8 +702,40 @@
 --------
 Помещение ВК, ТС
 --------
-Машинное помещение МП#
---------
+Машинное помещение МП1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">--------
+Машинное помещение МП2
+--------
+Машинное помещение МП3
+--------
+Машинное помещение МП4
+--------
+Машинное помещение МП5
+--------
+Машинное помещение МП6
+--------
+Машинное помещение МП7
+--------
+Машинное помещение МП8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">--------
 Машинное помещение
 --------
 Тамбур
@@ -550,6 +751,7 @@
 Венткамера
 --------
 Вытяжная веннткамера</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Тамбур
@@ -591,7 +793,25 @@
 --------
 Тамбур-шлюз
 --------
-ПИК зона #</t>
+ПИК зона 1
+--------
+ПИК зона 2
+--------
+ПИК зона 3
+--------
+ПИК зона 4
+--------
+ПИК зона 5
+--------
+ПИК зона 6
+--------
+ПИК зона 7
+--------
+ПИК зона 8
+--------
+ПИК зона 9
+--------
+ПИК зона 10</t>
     </r>
   </si>
   <si>
@@ -617,24 +837,18 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Лестница-Л#-#
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">--------
+    <t xml:space="preserve">Лестница-ЛА-1
+--------
+Лестница-ЛА-2
+--------
+Лестница-ЛБ-1
+--------
+Лестница-ЛБ-2
+--------
+Лестница-ЛВ-1
+--------
+Лестница-ЛВ-2
+--------
 Тамбур-шлюз
 --------
 Тамбур
@@ -643,12 +857,57 @@
 --------
 Венткамера ОВ/ДУ
 --------
-ПИК зона #
---------
-ПИК #
---------
-венткамера приточная зона #</t>
-    </r>
+ПИК зона 1
+--------
+ПИК зона 2
+--------
+ПИК зона 3
+--------
+ПИК зона 4
+--------
+ПИК зона 5
+--------
+ПИК зона 6
+--------
+ПИК зона 7
+--------
+ПИК зона 8
+--------
+ПИК зона 9
+--------
+ПИК зона 10
+--------
+ПИК 1
+--------
+ПИК 2
+--------
+ПИК 3
+--------
+ПИК 4
+--------
+ПИК 5
+--------
+ПИК 6
+--------
+ПИК 7
+--------
+ПИК 8
+--------
+ПИК 9
+--------
+ПИК 10
+--------
+венткамера приточная зона 1
+--------
+венткамера приточная зона 2
+--------
+венткамера приточная зона 3
+--------
+венткамера приточная зона 4
+--------
+венткамера приточная зона 5
+--------
+венткамера приточная зона 6</t>
   </si>
   <si>
     <r>
@@ -673,11 +932,55 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Тамбур-шлюз
---------
-ПИК #
---------
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Тамбур-шлюз
+--------
+ПИК 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">--------
+ПИК 2
+--------
+ПИК 3
+--------
+ПИК 4
+--------
+ПИК 5
+--------
+ПИК 6
+--------
+ПИК 7
+--------
+ПИК 8
+--------
+ПИК 9
+--------
+ПИК 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">--------
 *</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">технические помещения
@@ -952,15 +1255,15 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="84.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36"/>
@@ -995,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1090,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>4</v>
@@ -1111,18 +1414,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>5</v>
@@ -1148,10 +1451,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>6</v>
@@ -1169,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1186,24 +1489,24 @@
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1215,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -1227,12 +1530,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -1244,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>13</v>
@@ -1256,12 +1559,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -1282,21 +1585,21 @@
         <v>13</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>11</v>
@@ -1316,16 +1619,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>12</v>
@@ -1343,47 +1646,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>14</v>
@@ -1421,27 +1724,27 @@
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="259.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>16</v>
@@ -1459,18 +1762,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="796.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>17</v>
@@ -1488,18 +1791,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="550.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>18</v>
@@ -1517,18 +1820,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>19</v>
@@ -1546,18 +1849,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="863.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>20</v>
@@ -1575,12 +1878,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="259.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -1592,7 +1895,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1604,41 +1907,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -1650,7 +1953,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
